--- a/tests/files/bom.xlsx
+++ b/tests/files/bom.xlsx
@@ -1,293 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luoxin/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E7E614-A519-034F-8AA2-B8C53B4F6053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="1320" windowWidth="27700" windowHeight="16680" xr2:uid="{6A2A4FDE-D801-BE4B-A87F-E1155B34C9F6}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1460" yWindow="1320" windowWidth="27700" windowHeight="16680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工艺" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
-  <si>
-    <r>
-      <t xml:space="preserve">Bill of Material                                                                                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Project Name:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product Name:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product Version:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>AS/AC Number:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product Number:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Customer Version:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer Number:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>STU-20040016</t>
-  </si>
-  <si>
-    <t>Issue Date:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>Part Name</t>
-  </si>
-  <si>
-    <t>Ver.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Typ</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>St</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Qty</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comments</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7009492800</t>
-  </si>
-  <si>
-    <t>Formbended PA tube 6x1.5</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>Black；折弯：32；划线：6处</t>
-  </si>
-  <si>
-    <t>7007104800</t>
-  </si>
-  <si>
-    <t>Cable tie firtree</t>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>100001243781-00</t>
-  </si>
-  <si>
-    <t>Single clip firtree OD6 High</t>
-  </si>
-  <si>
-    <t>100001185844</t>
-  </si>
-  <si>
-    <t>Single clip for tube OD6 weld stud T5/M6</t>
-  </si>
-  <si>
-    <t>5099114200</t>
-  </si>
-  <si>
-    <t>Protective cap</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7005941300</t>
-  </si>
-  <si>
-    <t>Label</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>869499990030</t>
-  </si>
-  <si>
-    <t>Thermal transfer ribbon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>869499990032</t>
-  </si>
-  <si>
-    <t>color tape</t>
-  </si>
-  <si>
-    <t>Green;L=50mm(Total length approx.100mm)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="10">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="14"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="14"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -304,8 +101,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0E0E0"/>
+        <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -618,183 +421,357 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="72">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{53C2F36C-BF93-C245-8BBA-43A8AAE9E5C3}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{3C562B5A-6A20-7E44-9664-85AD1F1D931A}"/>
+    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -862,14 +839,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1189,7 +1226,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382A67C0-BBA3-8146-B99A-544381E3F541}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1198,499 +1239,826 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
+    <row r="1" ht="18" customHeight="1" s="54">
+      <c r="A1" s="55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bill of Material                                                                                                      </t>
+        </is>
+      </c>
+      <c r="B1" s="56" t="n"/>
+      <c r="C1" s="56" t="n"/>
+      <c r="D1" s="56" t="n"/>
+      <c r="E1" s="56" t="n"/>
+      <c r="F1" s="56" t="n"/>
+      <c r="G1" s="56" t="n"/>
+      <c r="H1" s="56" t="n"/>
+      <c r="I1" s="56" t="n"/>
+      <c r="J1" s="56" t="n"/>
+      <c r="K1" s="56" t="n"/>
+      <c r="L1" s="56" t="n"/>
+      <c r="M1" s="56" t="n"/>
+      <c r="N1" s="57" t="n"/>
     </row>
-    <row r="2" spans="1:14" ht="17" thickBot="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17" customHeight="1" s="54" thickBot="1">
+      <c r="A2" s="30" t="inlineStr">
+        <is>
+          <t>Project Name:</t>
+        </is>
+      </c>
+      <c r="B2" s="58" t="n"/>
+      <c r="C2" s="58" t="n"/>
+      <c r="D2" s="59" t="n"/>
+      <c r="E2" s="7" t="n"/>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Product Name:</t>
+        </is>
+      </c>
+      <c r="G2" s="60" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="62" t="n"/>
+      <c r="L2" s="63" t="inlineStr">
+        <is>
+          <t>Product Version:</t>
+        </is>
+      </c>
+      <c r="M2" s="59" t="n"/>
+      <c r="N2" s="14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="30" t="inlineStr">
+        <is>
+          <t>AS/AC Number:</t>
+        </is>
+      </c>
+      <c r="B3" s="58" t="n"/>
+      <c r="C3" s="58" t="n"/>
+      <c r="D3" s="59" t="n"/>
+      <c r="E3" s="7" t="n"/>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Product Number:</t>
+        </is>
+      </c>
+      <c r="G3" s="64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" s="58" t="n"/>
+      <c r="I3" s="58" t="n"/>
+      <c r="J3" s="58" t="n"/>
+      <c r="K3" s="59" t="n"/>
+      <c r="L3" s="63" t="inlineStr">
+        <is>
+          <t>Customer Version:</t>
+        </is>
+      </c>
+      <c r="M3" s="59" t="n"/>
+      <c r="N3" s="14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1" s="54" thickBot="1">
+      <c r="A4" s="65" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="62" t="n"/>
+      <c r="E4" s="21" t="n"/>
+      <c r="F4" s="22" t="inlineStr">
+        <is>
+          <t>Customer Number:</t>
+        </is>
+      </c>
+      <c r="G4" s="60" t="inlineStr">
+        <is>
+          <t>STU-20040016</t>
+        </is>
+      </c>
+      <c r="H4" s="61" t="n"/>
+      <c r="I4" s="61" t="n"/>
+      <c r="J4" s="61" t="n"/>
+      <c r="K4" s="62" t="n"/>
+      <c r="L4" s="66" t="inlineStr">
+        <is>
+          <t>Issue Date:</t>
+        </is>
+      </c>
+      <c r="M4" s="62" t="n"/>
+      <c r="N4" s="25" t="n">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="B5" s="56" t="n"/>
+      <c r="C5" s="56" t="n"/>
+      <c r="D5" s="67" t="n"/>
+      <c r="E5" s="27" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="F5" s="27" t="inlineStr">
+        <is>
+          <t>Part Name</t>
+        </is>
+      </c>
+      <c r="G5" s="27" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
+      <c r="H5" s="27" t="inlineStr">
+        <is>
+          <t>Typ</t>
+        </is>
+      </c>
+      <c r="I5" s="27" t="inlineStr">
+        <is>
+          <t>St</t>
+        </is>
+      </c>
+      <c r="J5" s="27" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="K5" s="27" t="inlineStr">
+        <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="L5" s="27" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="M5" s="27" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="N5" s="68" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="B6" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12" t="s">
+      <c r="C6" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14" t="s">
+      <c r="D6" s="31" t="n">
         <v>4</v>
       </c>
+      <c r="E6" s="69" t="n"/>
+      <c r="F6" s="69" t="n"/>
+      <c r="G6" s="69" t="n"/>
+      <c r="H6" s="69" t="n"/>
+      <c r="I6" s="69" t="n"/>
+      <c r="J6" s="69" t="n"/>
+      <c r="K6" s="69" t="n"/>
+      <c r="L6" s="69" t="n"/>
+      <c r="M6" s="69" t="n"/>
+      <c r="N6" s="70" t="n"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14" t="s">
-        <v>4</v>
+    <row r="7" ht="45" customHeight="1" s="54">
+      <c r="A7" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="35" t="n"/>
+      <c r="C7" s="35" t="n"/>
+      <c r="D7" s="35" t="n"/>
+      <c r="E7" s="36" t="inlineStr">
+        <is>
+          <t>7009492800</t>
+        </is>
+      </c>
+      <c r="F7" s="37" t="inlineStr">
+        <is>
+          <t>Formbended PA tube 6x1.5</t>
+        </is>
+      </c>
+      <c r="G7" s="38" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="H7" s="39" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I7" s="39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J7" s="40" t="n"/>
+      <c r="K7" s="40" t="n"/>
+      <c r="L7" s="39" t="n">
+        <v>3949</v>
+      </c>
+      <c r="M7" s="39" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="N7" s="41" t="inlineStr">
+        <is>
+          <t>Black；折弯：32；划线：6处</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17" thickBot="1">
-      <c r="A4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25">
-        <v>45257</v>
-      </c>
+    <row r="8" ht="30" customHeight="1" s="54">
+      <c r="A8" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="35" t="n"/>
+      <c r="C8" s="35" t="n"/>
+      <c r="D8" s="35" t="n"/>
+      <c r="E8" s="36" t="inlineStr">
+        <is>
+          <t>7007104800</t>
+        </is>
+      </c>
+      <c r="F8" s="37" t="inlineStr">
+        <is>
+          <t>Cable tie firtree</t>
+        </is>
+      </c>
+      <c r="G8" s="38" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="H8" s="39" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I8" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J8" s="40" t="n"/>
+      <c r="K8" s="40" t="n"/>
+      <c r="L8" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="39" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="N8" s="41" t="n"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>23</v>
-      </c>
+    <row r="9" ht="45" customHeight="1" s="54">
+      <c r="A9" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="39" t="n"/>
+      <c r="C9" s="39" t="n"/>
+      <c r="D9" s="39" t="n"/>
+      <c r="E9" s="36" t="inlineStr">
+        <is>
+          <t>100001243781-00</t>
+        </is>
+      </c>
+      <c r="F9" s="37" t="inlineStr">
+        <is>
+          <t>Single clip firtree OD6 High</t>
+        </is>
+      </c>
+      <c r="G9" s="42" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="H9" s="43" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I9" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J9" s="44" t="n"/>
+      <c r="K9" s="44" t="n"/>
+      <c r="L9" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="43" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="N9" s="45" t="n"/>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="30">
+    <row r="10" ht="60" customHeight="1" s="54">
+      <c r="A10" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B10" s="39" t="n"/>
+      <c r="C10" s="39" t="n"/>
+      <c r="D10" s="39" t="n"/>
+      <c r="E10" s="46" t="inlineStr">
+        <is>
+          <t>100001185844</t>
+        </is>
+      </c>
+      <c r="F10" s="47" t="inlineStr">
+        <is>
+          <t>Single clip for tube OD6 weld stud T5/M6</t>
+        </is>
+      </c>
+      <c r="G10" s="42" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="H10" s="39" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I10" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J10" s="40" t="n"/>
+      <c r="K10" s="40" t="n"/>
+      <c r="L10" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="39" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="N10" s="45" t="n"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" s="54">
+      <c r="A11" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="35" t="n"/>
+      <c r="C11" s="35" t="n"/>
+      <c r="D11" s="35" t="n"/>
+      <c r="E11" s="36" t="inlineStr">
+        <is>
+          <t>5099114200</t>
+        </is>
+      </c>
+      <c r="F11" s="37" t="inlineStr">
+        <is>
+          <t>Protective cap</t>
+        </is>
+      </c>
+      <c r="G11" s="38" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="H11" s="39" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I11" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J11" s="40" t="n"/>
+      <c r="K11" s="40" t="n"/>
+      <c r="L11" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="31">
-        <v>3</v>
-      </c>
-      <c r="D6" s="31">
-        <v>4</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
+      <c r="M11" s="39" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="N11" s="45" t="n"/>
     </row>
-    <row r="7" spans="1:14" ht="45">
-      <c r="A7" s="34">
+    <row r="12">
+      <c r="A12" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="39">
-        <v>3949</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>30</v>
-      </c>
+      <c r="B12" s="48" t="n"/>
+      <c r="C12" s="49" t="n"/>
+      <c r="D12" s="49" t="n"/>
+      <c r="E12" s="36" t="inlineStr">
+        <is>
+          <t>7005941300</t>
+        </is>
+      </c>
+      <c r="F12" s="37" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="G12" s="38" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="H12" s="39" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I12" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J12" s="40" t="n"/>
+      <c r="K12" s="40" t="n"/>
+      <c r="L12" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="39" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="N12" s="45" t="n"/>
     </row>
-    <row r="8" spans="1:14" ht="30">
-      <c r="A8" s="34">
+    <row r="13" ht="45" customHeight="1" s="54">
+      <c r="A13" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="39">
+      <c r="B13" s="49" t="n"/>
+      <c r="C13" s="49" t="n"/>
+      <c r="D13" s="49" t="n"/>
+      <c r="E13" s="36" t="inlineStr">
+        <is>
+          <t>869499990030</t>
+        </is>
+      </c>
+      <c r="F13" s="50" t="inlineStr">
+        <is>
+          <t>Thermal transfer ribbon</t>
+        </is>
+      </c>
+      <c r="G13" s="42" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="H13" s="43" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I13" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J13" s="44" t="n"/>
+      <c r="K13" s="44" t="n"/>
+      <c r="L13" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="43" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="N13" s="41" t="n"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" s="54">
+      <c r="A14" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="51" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="36" t="inlineStr">
+        <is>
+          <t>869499990032</t>
+        </is>
+      </c>
+      <c r="F14" s="52" t="inlineStr">
+        <is>
+          <t>color tape</t>
+        </is>
+      </c>
+      <c r="G14" s="38" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="H14" s="43" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I14" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J14" s="39" t="n"/>
+      <c r="K14" s="39" t="n"/>
+      <c r="L14" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="41"/>
-    </row>
-    <row r="9" spans="1:14" ht="45">
-      <c r="A9" s="34">
-        <v>1</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="43">
-        <v>1</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="45"/>
-    </row>
-    <row r="10" spans="1:14" ht="60">
-      <c r="A10" s="34">
-        <v>1</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="39">
-        <v>1</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="45"/>
-    </row>
-    <row r="11" spans="1:14" ht="30">
-      <c r="A11" s="34">
-        <v>1</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="39">
-        <v>2</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="45"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="48">
-        <v>1</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="39">
-        <v>1</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="45"/>
-    </row>
-    <row r="13" spans="1:14" ht="45">
-      <c r="A13" s="48">
-        <v>1</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="39">
-        <v>1</v>
-      </c>
-      <c r="M13" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="41"/>
-    </row>
-    <row r="14" spans="1:14" ht="30">
-      <c r="A14" s="51">
-        <v>1</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39">
-        <v>2</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" s="53" t="s">
-        <v>49</v>
+      <c r="M14" s="39" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="N14" s="53" t="inlineStr">
+        <is>
+          <t>Green;L=50mm(Total length approx.100mm)</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="G2:K2"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G3:K3"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G4:K4"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="6">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B8">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="6">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B14">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="6">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="3">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="2">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C14">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="3">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="0">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D14">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="0">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14" xr:uid="{1EFB0D6D-4FCA-6B44-9F1F-D2D4C4111C50}">
+    <dataValidation sqref="I7:I14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"N,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14" xr:uid="{15D9756F-37B5-AC44-A731-D7D039AE7147}">
+    <dataValidation sqref="H7:H14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"O,I,F"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M14" xr:uid="{F0BE7328-3286-4A4D-B71A-2A267554D208}">
+    <dataValidation sqref="M7:M14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"PC,G,KG,MM,M"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" style="54" min="1" max="1"/>
+    <col width="20" customWidth="1" style="54" min="2" max="2"/>
+    <col width="15" customWidth="1" style="54" min="3" max="3"/>
+    <col width="15" customWidth="1" style="54" min="4" max="4"/>
+    <col width="25" customWidth="1" style="54" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="71" t="inlineStr">
+        <is>
+          <t>Op No</t>
+        </is>
+      </c>
+      <c r="B1" s="71" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="71" t="inlineStr">
+        <is>
+          <t>Work Center</t>
+        </is>
+      </c>
+      <c r="D1" s="71" t="inlineStr">
+        <is>
+          <t>Standard Time</t>
+        </is>
+      </c>
+      <c r="E1" s="71" t="inlineStr">
+        <is>
+          <t>Spec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>重力铸造</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>铸造车间</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>铝合金缸体铸造</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CNC精加工</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>机加车间</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>缸体精加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>030</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>焊接</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>焊接车间</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>支架焊接</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>040</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>喷涂</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>表面处理</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>表面喷涂处理</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>050</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>尺寸检测</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>质检车间</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>最终质量检测</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>